--- a/results/multilabel_powerset/multilabel_powerset.xlsx
+++ b/results/multilabel_powerset/multilabel_powerset.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,25 +445,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>285ps</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>41464ps</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>41465ps</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>41468ps</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>41470ps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>41471ps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>41473ps</t>
         </is>
@@ -477,27 +487,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0.823 (0.815 Â± 0.011)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.725 (0.717 Â± 0.010)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>0.327 (0.321 Â± 0.005)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.489 (0.476 Â± 0.010)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.741 (0.730 Â± 0.012)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>0.741 (0.726 Â± 0.016)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.258 (0.238 Â± 0.019)</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.258 (0.238 Â± 0.020)</t>
         </is>
       </c>
     </row>
@@ -509,25 +529,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.587 (0.474 Â± 0.051)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0.379 (0.304 Â± 0.039)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.516 (0.475 Â± 0.018)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.738 (0.705 Â± 0.014)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>0.799 (0.742 Â± 0.026)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>0.229 (0.191 Â± 0.021)</t>
         </is>
@@ -541,25 +571,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.188 (0.116 Â± 0.046)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.570 (0.471 Â± 0.065)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.351 (0.258 Â± 0.037)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.487 (0.430 Â± 0.034)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.695 (0.663 Â± 0.023)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.716 (0.679 Â± 0.024)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>0.209 (0.173 Â± 0.018)</t>
         </is>
@@ -573,25 +613,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.047 (0.011 Â± 0.014)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.429 (0.191 Â± 0.186)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>0.349 (0.275 Â± 0.043)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.474 (0.227 Â± 0.148)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.746 (0.533 Â± 0.283)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0.800 (0.625 Â± 0.151)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>0.217 (0.171 Â± 0.023)</t>
         </is>
@@ -605,25 +655,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0.265 (0.182 Â± 0.062)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.606 (0.481 Â± 0.052)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>0.363 (0.303 Â± 0.032)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.533 (0.492 Â± 0.026)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.764 (0.718 Â± 0.015)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>0.796 (0.749 Â± 0.021)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.230 (0.198 Â± 0.018)</t>
         </is>
@@ -642,20 +702,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>0.469 (0.468 Â± 0.001)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -692,6 +762,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -701,25 +781,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0.272 (0.137 Â± 0.061)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.603 (0.480 Â± 0.063)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0.369 (0.316 Â± 0.040)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.496 (0.464 Â± 0.022)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.745 (0.717 Â± 0.016)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.772 (0.723 Â± 0.024)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>0.224 (0.157 Â± 0.050)</t>
         </is>
@@ -738,20 +828,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>0.456 (0.450 Â± 0.005)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -765,25 +865,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>0.290 (0.163 Â± 0.069)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.630 (0.485 Â± 0.056)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>0.281 (0.166 Â± 0.070)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.370 (0.307 Â± 0.045)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.565 (0.489 Â± 0.047)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0.607 (0.472 Â± 0.143)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.180 (0.106 Â± 0.044)</t>
         </is>
@@ -797,25 +907,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>0.294 (0.274 Â± 0.016)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.506 (0.463 Â± 0.028)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.663 (0.337 Â± 0.325)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>0.773 (0.773 Â± 0.000)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -829,25 +949,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>0.026 (0.005 Â± 0.009)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.362 (0.203 Â± 0.103)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>0.094 (0.045 Â± 0.023)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.146 (0.099 Â± 0.033)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.308 (0.173 Â± 0.081)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>0.299 (0.235 Â± 0.040)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>0.018 (0.005 Â± 0.005)</t>
         </is>
@@ -861,25 +991,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>0.220 (0.086 Â± 0.059)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.550 (0.435 Â± 0.047)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>0.344 (0.264 Â± 0.043)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.477 (0.449 Â± 0.019)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.717 (0.687 Â± 0.019)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>0.749 (0.692 Â± 0.022)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>0.194 (0.144 Â± 0.018)</t>
         </is>
@@ -893,25 +1033,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>0.201 (0.152 Â± 0.050)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.605 (0.512 Â± 0.057)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>0.358 (0.303 Â± 0.032)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.495 (0.462 Â± 0.016)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.733 (0.708 Â± 0.019)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>0.781 (0.726 Â± 0.030)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>0.246 (0.195 Â± 0.020)</t>
         </is>
@@ -925,25 +1075,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.389 (0.313 Â± 0.038)</t>
+          <t>0.273 (0.168 Â± 0.057)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.495 (0.455 Â± 0.020)</t>
+          <t>0.633 (0.513 Â± 0.063)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.389 (0.314 Â± 0.043)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.515 (0.468 Â± 0.025)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>0.752 (0.713 Â± 0.018)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.781 (0.726 Â± 0.022)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.785 (0.712 Â± 0.026)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>0.224 (0.191 Â± 0.017)</t>
         </is>
@@ -957,25 +1117,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.518 (0.394 Â± 0.059)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>0.385 (0.305 Â± 0.033)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.504 (0.460 Â± 0.022)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.734 (0.702 Â± 0.019)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>0.753 (0.704 Â± 0.024)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>0.213 (0.184 Â± 0.017)</t>
         </is>
@@ -992,7 +1162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,25 +1178,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>285ps</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>41464ps</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>41465ps</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>41468ps</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>41470ps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>41471ps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>41473ps</t>
         </is>
@@ -1040,27 +1220,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>00:00:51 (00:01:03 Â± 00:00:06)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00:04:31 (00:05:16 Â± 00:00:40)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>00:04:47 (00:05:32 Â± 00:00:48)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>00:04:59 (00:08:18 Â± 00:02:34)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>00:04:51 (00:08:30 Â± 00:04:46)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00:04:54 (00:10:22 Â± 00:06:53)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>00:06:10 (00:27:23 Â± 00:13:09)</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:05:20 (00:26:33 Â± 00:10:20)</t>
         </is>
       </c>
     </row>
@@ -1072,25 +1262,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:05:00 (00:05:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>00:00:33 (00:00:50 Â± 00:00:21)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>00:01:05 (00:01:22 Â± 00:00:11)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>00:00:44 (00:02:21 Â± 00:01:50)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>00:01:28 (00:03:38 Â± 00:01:36)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>00:05:03 (00:06:33 Â± 00:01:07)</t>
         </is>
@@ -1104,25 +1304,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>00:00:18 (00:00:25 Â± 00:00:05)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00:01:01 (00:01:05 Â± 00:00:03)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>00:00:26 (00:00:35 Â± 00:00:08)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>00:00:43 (00:00:59 Â± 00:00:16)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>00:03:25 (00:03:56 Â± 00:00:38)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:01:16 (00:01:40 Â± 00:00:21)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:01:00 (00:01:21 Â± 00:00:19)</t>
         </is>
@@ -1136,25 +1346,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>00:05:08 (00:05:23 Â± 00:00:16)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:05:07 (00:05:17 Â± 00:00:10)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>00:05:05 (00:05:13 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>00:05:05 (00:05:13 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:05:08 (00:05:14 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:05:07 (00:05:13 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>00:05:08 (00:05:16 Â± 00:00:04)</t>
         </is>
@@ -1168,25 +1388,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>00:04:59 (00:05:03 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:04:58 (00:05:07 Â± 00:00:07)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>00:04:58 (00:05:03 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:06 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00:04:57 (00:05:00 Â± 00:00:03)</t>
         </is>
@@ -1205,20 +1435,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>00:05:03 (00:05:06 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1255,6 +1495,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1264,25 +1514,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:04 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:07 Â± 00:00:15)</t>
         </is>
@@ -1301,20 +1561,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1328,25 +1598,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>00:05:11 (00:05:23 Â± 00:00:10)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>00:05:04 (00:05:09 Â± 00:00:05)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>00:05:06 (00:05:07 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>00:05:03 (00:05:07 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>00:05:16 (00:05:54 Â± 00:00:26)</t>
         </is>
@@ -1360,25 +1640,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>00:01:12 (00:02:13 Â± 00:00:36)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>00:02:03 (00:05:11 Â± 00:02:05)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>00:03:25 (00:03:43 Â± 00:00:17)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>00:02:04 (00:02:04 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1392,25 +1682,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>00:00:08 (00:00:09 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>00:00:11 (00:00:14 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>00:00:19 (00:00:19 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
         </is>
@@ -1424,25 +1724,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>00:04:15 (00:04:34 Â± 00:00:14)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>00:02:04 (00:02:42 Â± 00:00:21)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>00:01:48 (00:01:57 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>00:01:44 (00:01:56 Â± 00:00:07)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>00:02:29 (00:02:56 Â± 00:00:11)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>00:02:08 (00:02:25 Â± 00:00:10)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>00:02:31 (00:03:12 Â± 00:00:18)</t>
         </is>
@@ -1456,25 +1766,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>00:00:55 (00:01:19 Â± 00:00:42)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>00:03:09 (00:04:39 Â± 00:00:34)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>00:00:46 (00:04:11 Â± 00:01:23)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>00:01:22 (00:04:30 Â± 00:00:55)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>00:02:30 (00:04:33 Â± 00:00:41)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>00:00:51 (00:04:15 Â± 00:01:13)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>00:02:15 (00:04:44 Â± 00:00:39)</t>
         </is>
@@ -1488,27 +1808,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:12:43 (01:21:38 Â± 00:46:22)</t>
+          <t>00:00:49 (00:00:52 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:28:15 (01:50:14 Â± 01:06:35)</t>
+          <t>00:07:30 (00:07:55 Â± 00:00:16)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:09:39 (03:14:13 Â± 01:29:18)</t>
+          <t>00:10:02 (00:11:05 Â± 00:00:53)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:19:58 (00:58:47 Â± 00:46:34)</t>
+          <t>00:05:05 (00:08:54 Â± 00:06:57)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:09:28 (00:09:48 Â± 00:00:11)</t>
+          <t>00:08:00 (00:08:46 Â± 00:00:17)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:09:31 (00:11:36 Â± 00:01:32)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:34:35 (00:35:50 Â± 00:00:36)</t>
         </is>
       </c>
     </row>
@@ -1520,25 +1850,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:05:02 (00:06:08 Â± 00:00:48)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>00:05:01 (00:05:26 Â± 00:00:17)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>00:05:03 (00:05:51 Â± 00:00:26)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>00:05:05 (00:06:10 Â± 00:01:52)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>00:05:03 (00:05:56 Â± 00:00:35)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>00:05:18 (00:06:48 Â± 00:01:27)</t>
         </is>
@@ -1555,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1571,25 +1911,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>285ps</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>41464ps</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>41465ps</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>41468ps</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>41470ps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>41471ps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>41473ps</t>
         </is>
@@ -1603,25 +1953,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00:00:04 (00:00:17 Â± 00:00:07)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>00:00:03 (00:00:10 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00:00:03 (00:00:09 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
@@ -1635,7 +1995,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1654,6 +2014,16 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -1672,20 +2042,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:03 (00:00:03 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -1699,25 +2079,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
@@ -1731,25 +2121,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:05 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:03 Â± 00:00:02)</t>
         </is>
@@ -1768,7 +2168,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1778,10 +2178,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1818,6 +2228,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1850,6 +2270,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1864,7 +2294,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1874,10 +2304,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1914,6 +2354,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1923,12 +2373,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1942,6 +2392,16 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1965,15 +2425,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -2010,6 +2480,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2042,6 +2522,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2074,6 +2564,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2083,7 +2583,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2102,6 +2602,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -2118,7 +2628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2134,25 +2644,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>285ps</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>41464ps</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>41465ps</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>41468ps</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>41470ps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>41471ps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>41473ps</t>
         </is>
@@ -2189,6 +2709,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2198,7 +2728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2217,6 +2747,16 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2230,12 +2770,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2249,6 +2789,16 @@
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2285,6 +2835,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2294,7 +2854,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2313,6 +2873,16 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2331,20 +2901,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>[2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2381,6 +2961,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2413,6 +3003,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2427,20 +3027,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>[2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2477,6 +3087,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2486,25 +3106,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>[2, 3, 7, 11, 17, 31, 37, 41, 43, 53, 67, 71]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>[2, 5, 7, 11, 19, 23, 31, 37, 41, 67, 71]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>[2, 5, 7, 11, 13, 17, 19, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[2, 3, 5, 7, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2541,6 +3171,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2573,6 +3213,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2587,20 +3237,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>[23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>[43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>[31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>[59, 61, 67, 71]</t>
         </is>
@@ -2614,12 +3274,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[7, 17, 23, 29, 61]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[5, 7, 11, 13, 17, 19, 23, 31, 47, 53, 59, 67, 71]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2629,10 +3289,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2, 5, 7, 11, 19, 23, 31, 37, 41, 67, 71]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2646,12 +3316,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[59]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2661,10 +3331,20 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>[61]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2681,7 +3361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2697,25 +3377,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>285ps</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>41464ps</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>41465ps</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>41468ps</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>41470ps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>41471ps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>41473ps</t>
         </is>
@@ -2728,18 +3418,24 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>29</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>31</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2749,19 +3445,27 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>37</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2772,18 +3476,24 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>37</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2794,18 +3504,24 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
         <v>71</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>37</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2819,15 +3535,21 @@
         <v>29</v>
       </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" t="n">
         <v>47</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>43</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>37</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2842,20 +3564,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2892,6 +3624,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2900,18 +3642,24 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>37</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2926,20 +3674,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>37</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2952,18 +3710,24 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
         <v>41</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>71</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>53</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>37</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2973,19 +3737,29 @@
           <t>lightautoml</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>19</v>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>13</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>11</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2998,18 +3772,24 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43</v>
+      </c>
+      <c r="D13" t="n">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>59</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>61</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>23</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3020,18 +3800,24 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
         <v>23</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>11</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3042,18 +3828,24 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>19</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>11</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3064,18 +3856,24 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
         <v>71</v>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>13</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>19</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>37</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3085,19 +3883,27 @@
           <t>tpot</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>19</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>61</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>37</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>13</v>
       </c>
     </row>

--- a/results/multilabel_powerset/multilabel_powerset.xlsx
+++ b/results/multilabel_powerset/multilabel_powerset.xlsx
@@ -487,37 +487,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.823 (0.815 Â± 0.011)</t>
+          <t>0.823 (0.815 ± 0.011)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.725 (0.717 Â± 0.010)</t>
+          <t>0.725 (0.717 ± 0.010)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.327 (0.321 Â± 0.005)</t>
+          <t>0.327 (0.321 ± 0.005)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.489 (0.476 Â± 0.010)</t>
+          <t>0.489 (0.476 ± 0.010)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.741 (0.730 Â± 0.012)</t>
+          <t>0.741 (0.730 ± 0.012)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.741 (0.726 Â± 0.016)</t>
+          <t>0.741 (0.726 ± 0.016)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.258 (0.238 Â± 0.020)</t>
+          <t>0.258 (0.238 ± 0.020)</t>
         </is>
       </c>
     </row>
@@ -534,32 +534,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.587 (0.474 Â± 0.051)</t>
+          <t>0.587 (0.474 ± 0.051)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.379 (0.304 Â± 0.039)</t>
+          <t>0.379 (0.304 ± 0.039)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.516 (0.475 Â± 0.018)</t>
+          <t>0.516 (0.475 ± 0.018)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.738 (0.705 Â± 0.014)</t>
+          <t>0.738 (0.705 ± 0.014)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.799 (0.742 Â± 0.026)</t>
+          <t>0.799 (0.742 ± 0.026)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.229 (0.191 Â± 0.021)</t>
+          <t>0.229 (0.191 ± 0.021)</t>
         </is>
       </c>
     </row>
@@ -571,37 +571,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.188 (0.116 Â± 0.046)</t>
+          <t>0.188 (0.116 ± 0.046)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.570 (0.471 Â± 0.065)</t>
+          <t>0.570 (0.471 ± 0.065)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.351 (0.258 Â± 0.037)</t>
+          <t>0.351 (0.258 ± 0.037)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.487 (0.430 Â± 0.034)</t>
+          <t>0.487 (0.430 ± 0.034)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.695 (0.663 Â± 0.023)</t>
+          <t>0.695 (0.663 ± 0.023)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.716 (0.679 Â± 0.024)</t>
+          <t>0.716 (0.679 ± 0.024)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.209 (0.173 Â± 0.018)</t>
+          <t>0.209 (0.173 ± 0.018)</t>
         </is>
       </c>
     </row>
@@ -613,37 +613,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.047 (0.011 Â± 0.014)</t>
+          <t>0.047 (0.011 ± 0.014)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.429 (0.191 Â± 0.186)</t>
+          <t>0.429 (0.191 ± 0.186)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.349 (0.275 Â± 0.043)</t>
+          <t>0.349 (0.275 ± 0.043)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.474 (0.227 Â± 0.148)</t>
+          <t>0.474 (0.227 ± 0.148)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.746 (0.533 Â± 0.283)</t>
+          <t>0.746 (0.533 ± 0.283)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.800 (0.625 Â± 0.151)</t>
+          <t>0.800 (0.625 ± 0.151)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.217 (0.171 Â± 0.023)</t>
+          <t>0.217 (0.171 ± 0.023)</t>
         </is>
       </c>
     </row>
@@ -655,37 +655,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.265 (0.182 Â± 0.062)</t>
+          <t>0.265 (0.182 ± 0.062)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.606 (0.481 Â± 0.052)</t>
+          <t>0.606 (0.481 ± 0.052)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.363 (0.303 Â± 0.032)</t>
+          <t>0.363 (0.303 ± 0.032)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.533 (0.492 Â± 0.026)</t>
+          <t>0.533 (0.492 ± 0.026)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.764 (0.718 Â± 0.015)</t>
+          <t>0.764 (0.718 ± 0.015)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.796 (0.749 Â± 0.021)</t>
+          <t>0.796 (0.749 ± 0.021)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.230 (0.198 Â± 0.018)</t>
+          <t>0.230 (0.198 ± 0.018)</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.469 (0.468 Â± 0.001)</t>
+          <t>0.469 (0.468 ± 0.001)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,37 +781,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.272 (0.137 Â± 0.061)</t>
+          <t>0.272 (0.137 ± 0.061)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.603 (0.480 Â± 0.063)</t>
+          <t>0.603 (0.480 ± 0.063)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.369 (0.316 Â± 0.040)</t>
+          <t>0.369 (0.316 ± 0.040)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.496 (0.464 Â± 0.022)</t>
+          <t>0.496 (0.464 ± 0.022)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.745 (0.717 Â± 0.016)</t>
+          <t>0.745 (0.717 ± 0.016)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.772 (0.723 Â± 0.024)</t>
+          <t>0.772 (0.723 ± 0.024)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.224 (0.157 Â± 0.050)</t>
+          <t>0.224 (0.157 ± 0.050)</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.456 (0.450 Â± 0.005)</t>
+          <t>0.456 (0.450 ± 0.005)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -865,37 +865,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.290 (0.163 Â± 0.069)</t>
+          <t>0.290 (0.163 ± 0.069)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.630 (0.485 Â± 0.056)</t>
+          <t>0.630 (0.485 ± 0.056)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.281 (0.166 Â± 0.070)</t>
+          <t>0.281 (0.166 ± 0.070)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.370 (0.307 Â± 0.045)</t>
+          <t>0.370 (0.307 ± 0.045)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.565 (0.489 Â± 0.047)</t>
+          <t>0.565 (0.489 ± 0.047)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.607 (0.472 Â± 0.143)</t>
+          <t>0.607 (0.472 ± 0.143)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.180 (0.106 Â± 0.044)</t>
+          <t>0.180 (0.106 ± 0.044)</t>
         </is>
       </c>
     </row>
@@ -917,22 +917,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.294 (0.274 Â± 0.016)</t>
+          <t>0.294 (0.274 ± 0.016)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.506 (0.463 Â± 0.028)</t>
+          <t>0.506 (0.463 ± 0.028)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.663 (0.337 Â± 0.325)</t>
+          <t>0.663 (0.337 ± 0.325)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.773 (0.773 Â± 0.000)</t>
+          <t>0.773 (0.773 ± 0.000)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -949,37 +949,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.026 (0.005 Â± 0.009)</t>
+          <t>0.026 (0.005 ± 0.009)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.362 (0.203 Â± 0.103)</t>
+          <t>0.362 (0.203 ± 0.103)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.094 (0.045 Â± 0.023)</t>
+          <t>0.094 (0.045 ± 0.023)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.146 (0.099 Â± 0.033)</t>
+          <t>0.146 (0.099 ± 0.033)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.308 (0.173 Â± 0.081)</t>
+          <t>0.308 (0.173 ± 0.081)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.299 (0.235 Â± 0.040)</t>
+          <t>0.299 (0.235 ± 0.040)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.018 (0.005 Â± 0.005)</t>
+          <t>0.018 (0.005 ± 0.005)</t>
         </is>
       </c>
     </row>
@@ -991,37 +991,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.220 (0.086 Â± 0.059)</t>
+          <t>0.220 (0.086 ± 0.059)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.550 (0.435 Â± 0.047)</t>
+          <t>0.550 (0.435 ± 0.047)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.344 (0.264 Â± 0.043)</t>
+          <t>0.344 (0.264 ± 0.043)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.477 (0.449 Â± 0.019)</t>
+          <t>0.477 (0.449 ± 0.019)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.717 (0.687 Â± 0.019)</t>
+          <t>0.717 (0.687 ± 0.019)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.749 (0.692 Â± 0.022)</t>
+          <t>0.749 (0.692 ± 0.022)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.194 (0.144 Â± 0.018)</t>
+          <t>0.194 (0.144 ± 0.018)</t>
         </is>
       </c>
     </row>
@@ -1033,37 +1033,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.201 (0.152 Â± 0.050)</t>
+          <t>0.201 (0.152 ± 0.050)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.605 (0.512 Â± 0.057)</t>
+          <t>0.605 (0.512 ± 0.057)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.358 (0.303 Â± 0.032)</t>
+          <t>0.358 (0.303 ± 0.032)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.495 (0.462 Â± 0.016)</t>
+          <t>0.495 (0.462 ± 0.016)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.733 (0.708 Â± 0.019)</t>
+          <t>0.733 (0.708 ± 0.019)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.781 (0.726 Â± 0.030)</t>
+          <t>0.781 (0.726 ± 0.030)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.246 (0.195 Â± 0.020)</t>
+          <t>0.246 (0.195 ± 0.020)</t>
         </is>
       </c>
     </row>
@@ -1075,37 +1075,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.273 (0.168 Â± 0.057)</t>
+          <t>0.273 (0.168 ± 0.057)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.633 (0.513 Â± 0.063)</t>
+          <t>0.633 (0.513 ± 0.063)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.389 (0.314 Â± 0.043)</t>
+          <t>0.389 (0.314 ± 0.043)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.515 (0.468 Â± 0.025)</t>
+          <t>0.515 (0.468 ± 0.025)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.752 (0.713 Â± 0.018)</t>
+          <t>0.752 (0.713 ± 0.018)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.785 (0.712 Â± 0.026)</t>
+          <t>0.785 (0.712 ± 0.026)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.224 (0.191 Â± 0.017)</t>
+          <t>0.224 (0.191 ± 0.017)</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.518 (0.394 Â± 0.059)</t>
+          <t>0.518 (0.394 ± 0.059)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.385 (0.305 Â± 0.033)</t>
+          <t>0.385 (0.305 ± 0.033)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.504 (0.460 Â± 0.022)</t>
+          <t>0.504 (0.460 ± 0.022)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.734 (0.702 Â± 0.019)</t>
+          <t>0.734 (0.702 ± 0.019)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.753 (0.704 Â± 0.024)</t>
+          <t>0.753 (0.704 ± 0.024)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.213 (0.184 Â± 0.017)</t>
+          <t>0.213 (0.184 ± 0.017)</t>
         </is>
       </c>
     </row>
@@ -1220,37 +1220,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:00:51 (00:01:03 Â± 00:00:06)</t>
+          <t>00:00:51 (00:01:03 ± 00:00:06)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:31 (00:05:16 Â± 00:00:40)</t>
+          <t>00:04:31 (00:05:16 ± 00:00:40)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:04:47 (00:05:32 Â± 00:00:48)</t>
+          <t>00:04:47 (00:05:32 ± 00:00:48)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:04:59 (00:08:18 Â± 00:02:34)</t>
+          <t>00:04:59 (00:08:18 ± 00:02:34)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:04:51 (00:08:30 Â± 00:04:46)</t>
+          <t>00:04:51 (00:08:30 ± 00:04:46)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:04:54 (00:10:22 Â± 00:06:53)</t>
+          <t>00:04:54 (00:10:22 ± 00:06:53)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:05:20 (00:26:33 Â± 00:10:20)</t>
+          <t>00:05:20 (00:26:33 ± 00:10:20)</t>
         </is>
       </c>
     </row>
@@ -1267,32 +1267,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:00 Â± 00:00:00)</t>
+          <t>00:05:00 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:33 (00:00:50 Â± 00:00:21)</t>
+          <t>00:00:33 (00:00:50 ± 00:00:21)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:01:05 (00:01:22 Â± 00:00:11)</t>
+          <t>00:01:05 (00:01:22 ± 00:00:11)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:44 (00:02:21 Â± 00:01:50)</t>
+          <t>00:00:44 (00:02:21 ± 00:01:50)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00:01:28 (00:03:38 Â± 00:01:36)</t>
+          <t>00:01:28 (00:03:38 ± 00:01:36)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:05:03 (00:06:33 Â± 00:01:07)</t>
+          <t>00:05:03 (00:06:33 ± 00:01:07)</t>
         </is>
       </c>
     </row>
@@ -1304,37 +1304,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:18 (00:00:25 Â± 00:00:05)</t>
+          <t>00:00:18 (00:00:25 ± 00:00:05)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01:01 (00:01:05 Â± 00:00:03)</t>
+          <t>00:01:01 (00:01:05 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:35 Â± 00:00:08)</t>
+          <t>00:00:26 (00:00:35 ± 00:00:08)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:43 (00:00:59 Â± 00:00:16)</t>
+          <t>00:00:43 (00:00:59 ± 00:00:16)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:03:25 (00:03:56 Â± 00:00:38)</t>
+          <t>00:03:25 (00:03:56 ± 00:00:38)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:01:16 (00:01:40 Â± 00:00:21)</t>
+          <t>00:01:16 (00:01:40 ± 00:00:21)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:01:00 (00:01:21 Â± 00:00:19)</t>
+          <t>00:01:00 (00:01:21 ± 00:00:19)</t>
         </is>
       </c>
     </row>
@@ -1346,37 +1346,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:05:08 (00:05:23 Â± 00:00:16)</t>
+          <t>00:05:08 (00:05:23 ± 00:00:16)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:17 Â± 00:00:10)</t>
+          <t>00:05:07 (00:05:17 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:13 Â± 00:00:04)</t>
+          <t>00:05:05 (00:05:13 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:13 Â± 00:00:03)</t>
+          <t>00:05:05 (00:05:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:05:08 (00:05:14 Â± 00:00:03)</t>
+          <t>00:05:08 (00:05:14 ± 00:00:03)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:13 Â± 00:00:04)</t>
+          <t>00:05:07 (00:05:13 ± 00:00:04)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:08 (00:05:16 Â± 00:00:04)</t>
+          <t>00:05:08 (00:05:16 ± 00:00:04)</t>
         </is>
       </c>
     </row>
@@ -1388,37 +1388,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:03 Â± 00:00:02)</t>
+          <t>00:04:59 (00:05:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:07 Â± 00:00:07)</t>
+          <t>00:04:58 (00:05:07 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:03 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:06 Â± 00:00:04)</t>
+          <t>00:05:00 (00:05:06 ± 00:00:04)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:00 Â± 00:00:03)</t>
+          <t>00:04:57 (00:05:00 ± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:06 Â± 00:00:02)</t>
+          <t>00:05:03 (00:05:06 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1514,37 +1514,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
+          <t>00:05:00 (00:05:03 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:59 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:03)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:03)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
+          <t>00:05:00 (00:05:03 ± 00:00:04)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:07 Â± 00:00:15)</t>
+          <t>00:05:00 (00:05:07 ± 00:00:15)</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1598,37 +1598,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:05:11 (00:05:23 Â± 00:00:10)</t>
+          <t>00:05:11 (00:05:23 ± 00:00:10)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:04 (00:05:09 Â± 00:00:05)</t>
+          <t>00:05:04 (00:05:09 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:07 Â± 00:00:00)</t>
+          <t>00:05:06 (00:05:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:07 Â± 00:00:00)</t>
+          <t>00:05:03 (00:05:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:05:16 (00:05:54 Â± 00:00:26)</t>
+          <t>00:05:16 (00:05:54 ± 00:00:26)</t>
         </is>
       </c>
     </row>
@@ -1650,22 +1650,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:01:12 (00:02:13 Â± 00:00:36)</t>
+          <t>00:01:12 (00:02:13 ± 00:00:36)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00:02:03 (00:05:11 Â± 00:02:05)</t>
+          <t>00:02:03 (00:05:11 ± 00:02:05)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:03:25 (00:03:43 Â± 00:00:17)</t>
+          <t>00:03:25 (00:03:43 ± 00:00:17)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:02:04 (00:02:04 Â± 00:00:00)</t>
+          <t>00:02:04 (00:02:04 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1682,37 +1682,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:00:08 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:08 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:14 Â± 00:00:02)</t>
+          <t>00:00:11 (00:00:14 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00:19 (00:00:19 Â± 00:00:00)</t>
+          <t>00:00:19 (00:00:19 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1724,37 +1724,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:04:15 (00:04:34 Â± 00:00:14)</t>
+          <t>00:04:15 (00:04:34 ± 00:00:14)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:02:04 (00:02:42 Â± 00:00:21)</t>
+          <t>00:02:04 (00:02:42 ± 00:00:21)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:01:48 (00:01:57 Â± 00:00:04)</t>
+          <t>00:01:48 (00:01:57 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:01:44 (00:01:56 Â± 00:00:07)</t>
+          <t>00:01:44 (00:01:56 ± 00:00:07)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:02:29 (00:02:56 Â± 00:00:11)</t>
+          <t>00:02:29 (00:02:56 ± 00:00:11)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:02:08 (00:02:25 Â± 00:00:10)</t>
+          <t>00:02:08 (00:02:25 ± 00:00:10)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:02:31 (00:03:12 Â± 00:00:18)</t>
+          <t>00:02:31 (00:03:12 ± 00:00:18)</t>
         </is>
       </c>
     </row>
@@ -1766,37 +1766,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:00:55 (00:01:19 Â± 00:00:42)</t>
+          <t>00:00:55 (00:01:19 ± 00:00:42)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:03:09 (00:04:39 Â± 00:00:34)</t>
+          <t>00:03:09 (00:04:39 ± 00:00:34)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:46 (00:04:11 Â± 00:01:23)</t>
+          <t>00:00:46 (00:04:11 ± 00:01:23)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:01:22 (00:04:30 Â± 00:00:55)</t>
+          <t>00:01:22 (00:04:30 ± 00:00:55)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:02:30 (00:04:33 Â± 00:00:41)</t>
+          <t>00:02:30 (00:04:33 ± 00:00:41)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:00:51 (00:04:15 Â± 00:01:13)</t>
+          <t>00:00:51 (00:04:15 ± 00:01:13)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:02:15 (00:04:44 Â± 00:00:39)</t>
+          <t>00:02:15 (00:04:44 ± 00:00:39)</t>
         </is>
       </c>
     </row>
@@ -1808,37 +1808,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:49 (00:00:52 Â± 00:00:01)</t>
+          <t>00:00:49 (00:00:52 ± 00:00:01)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:07:30 (00:07:55 Â± 00:00:16)</t>
+          <t>00:07:30 (00:07:55 ± 00:00:16)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:10:02 (00:11:05 Â± 00:00:53)</t>
+          <t>00:10:02 (00:11:05 ± 00:00:53)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:05:05 (00:08:54 Â± 00:06:57)</t>
+          <t>00:05:05 (00:08:54 ± 00:06:57)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:08:00 (00:08:46 Â± 00:00:17)</t>
+          <t>00:08:00 (00:08:46 ± 00:00:17)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:09:31 (00:11:36 Â± 00:01:32)</t>
+          <t>00:09:31 (00:11:36 ± 00:01:32)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:34:35 (00:35:50 Â± 00:00:36)</t>
+          <t>00:34:35 (00:35:50 ± 00:00:36)</t>
         </is>
       </c>
     </row>
@@ -1855,32 +1855,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:02 (00:06:08 Â± 00:00:48)</t>
+          <t>00:05:02 (00:06:08 ± 00:00:48)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:26 Â± 00:00:17)</t>
+          <t>00:05:01 (00:05:26 ± 00:00:17)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:51 Â± 00:00:26)</t>
+          <t>00:05:03 (00:05:51 ± 00:00:26)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:05:05 (00:06:10 Â± 00:01:52)</t>
+          <t>00:05:05 (00:06:10 ± 00:01:52)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:56 Â± 00:00:35)</t>
+          <t>00:05:03 (00:05:56 ± 00:00:35)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:05:18 (00:06:48 Â± 00:01:27)</t>
+          <t>00:05:18 (00:06:48 ± 00:01:27)</t>
         </is>
       </c>
     </row>
@@ -1953,37 +1953,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
+          <t>00:00:10 (00:00:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:04 (00:00:17 Â± 00:00:07)</t>
+          <t>00:00:04 (00:00:17 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:04 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:10 Â± 00:00:05)</t>
+          <t>00:00:03 (00:00:10 ± 00:00:05)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:09 Â± 00:00:04)</t>
+          <t>00:00:03 (00:00:09 ± 00:00:04)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -2000,32 +2000,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2037,37 +2037,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:03 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:09 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2079,37 +2079,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -2121,37 +2121,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2247,37 +2247,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2331,37 +2331,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2383,22 +2383,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2415,37 +2415,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2457,37 +2457,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2499,37 +2499,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2541,37 +2541,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2588,32 +2588,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
